--- a/natmiOut/OldD4/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H2">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I2">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J2">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>215.0617952113757</v>
+        <v>278.624867498992</v>
       </c>
       <c r="R2">
-        <v>215.0617952113757</v>
+        <v>2507.623807490928</v>
       </c>
       <c r="S2">
-        <v>0.0007202940598884667</v>
+        <v>0.0008393144066344624</v>
       </c>
       <c r="T2">
-        <v>0.0007202940598884667</v>
+        <v>0.0008977455335049497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H3">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I3">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J3">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>11206.16325904106</v>
+        <v>13117.18583192671</v>
       </c>
       <c r="R3">
-        <v>11206.16325904106</v>
+        <v>118054.6724873404</v>
       </c>
       <c r="S3">
-        <v>0.03753215591683438</v>
+        <v>0.03951349763594728</v>
       </c>
       <c r="T3">
-        <v>0.03753215591683438</v>
+        <v>0.04226433590967689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H4">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I4">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J4">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>7399.226493007652</v>
+        <v>8283.855224605035</v>
       </c>
       <c r="R4">
-        <v>7399.226493007652</v>
+        <v>74554.69702144532</v>
       </c>
       <c r="S4">
-        <v>0.02478180229754202</v>
+        <v>0.02495383522258766</v>
       </c>
       <c r="T4">
-        <v>0.02478180229754202</v>
+        <v>0.02669106348921894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H5">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I5">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J5">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>8685.01193804061</v>
+        <v>9866.982134069305</v>
       </c>
       <c r="R5">
-        <v>8685.01193804061</v>
+        <v>88802.83920662376</v>
       </c>
       <c r="S5">
-        <v>0.02908820928832353</v>
+        <v>0.02972276067626728</v>
       </c>
       <c r="T5">
-        <v>0.02908820928832353</v>
+        <v>0.03179199049799782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H6">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I6">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J6">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>2625.608949277041</v>
+        <v>2926.866454184676</v>
       </c>
       <c r="R6">
-        <v>2625.608949277041</v>
+        <v>17561.19872510806</v>
       </c>
       <c r="S6">
-        <v>0.008793800534843741</v>
+        <v>0.008816733421331142</v>
       </c>
       <c r="T6">
-        <v>0.008793800534843741</v>
+        <v>0.006287022667181153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H7">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I7">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J7">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>623.2160790140578</v>
+        <v>796.2407207359671</v>
       </c>
       <c r="R7">
-        <v>623.2160790140578</v>
+        <v>7166.166486623704</v>
       </c>
       <c r="S7">
-        <v>0.002087301648810298</v>
+        <v>0.002398552268724265</v>
       </c>
       <c r="T7">
-        <v>0.002087301648810298</v>
+        <v>0.002565533927577597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H8">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I8">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J8">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>32473.74142035225</v>
+        <v>37485.66161589553</v>
       </c>
       <c r="R8">
-        <v>32473.74142035225</v>
+        <v>337370.9545430598</v>
       </c>
       <c r="S8">
-        <v>0.1087624281404517</v>
+        <v>0.1129197695771337</v>
       </c>
       <c r="T8">
-        <v>0.1087624281404517</v>
+        <v>0.1207809826460299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H9">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I9">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J9">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>21441.82288712361</v>
+        <v>23673.20230142696</v>
       </c>
       <c r="R9">
-        <v>21441.82288712361</v>
+        <v>213058.8207128427</v>
       </c>
       <c r="S9">
-        <v>0.07181386002844439</v>
+        <v>0.0713118678928816</v>
       </c>
       <c r="T9">
-        <v>0.07181386002844439</v>
+        <v>0.07627643512452109</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H10">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I10">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J10">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>25167.8317894449</v>
+        <v>28197.38609996352</v>
       </c>
       <c r="R10">
-        <v>25167.8317894449</v>
+        <v>253776.4748996717</v>
       </c>
       <c r="S10">
-        <v>0.08429316662400105</v>
+        <v>0.08494027326264889</v>
       </c>
       <c r="T10">
-        <v>0.08429316662400105</v>
+        <v>0.09085361854088055</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H11">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I11">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J11">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>7608.611807524352</v>
+        <v>8364.257921042752</v>
       </c>
       <c r="R11">
-        <v>7608.611807524352</v>
+        <v>50185.54752625651</v>
       </c>
       <c r="S11">
-        <v>0.02548308444821887</v>
+        <v>0.02519603593517365</v>
       </c>
       <c r="T11">
-        <v>0.02548308444821887</v>
+        <v>0.01796675043665223</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H12">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I12">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J12">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>450.4254809448879</v>
+        <v>554.3753336870623</v>
       </c>
       <c r="R12">
-        <v>450.4254809448879</v>
+        <v>4989.378003183559</v>
       </c>
       <c r="S12">
-        <v>0.001508584070118686</v>
+        <v>0.001669970122993498</v>
       </c>
       <c r="T12">
-        <v>0.001508584070118686</v>
+        <v>0.001786229578753148</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H13">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I13">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J13">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>23470.19130264152</v>
+        <v>26099.04972906227</v>
       </c>
       <c r="R13">
-        <v>23470.19130264152</v>
+        <v>234891.4475615604</v>
       </c>
       <c r="S13">
-        <v>0.07860735730920017</v>
+        <v>0.07861935883074209</v>
       </c>
       <c r="T13">
-        <v>0.07860735730920017</v>
+        <v>0.0840926566724127</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H14">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I14">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J14">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>15496.94192991112</v>
+        <v>16482.251012187</v>
       </c>
       <c r="R14">
-        <v>15496.94192991112</v>
+        <v>148340.259109683</v>
       </c>
       <c r="S14">
-        <v>0.05190301330638693</v>
+        <v>0.04965023708210126</v>
       </c>
       <c r="T14">
-        <v>0.05190301330638693</v>
+        <v>0.0531067717003108</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H15">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I15">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J15">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>18189.8913070968</v>
+        <v>19632.17268494078</v>
       </c>
       <c r="R15">
-        <v>18189.8913070968</v>
+        <v>176689.554164467</v>
       </c>
       <c r="S15">
-        <v>0.06092235325033522</v>
+        <v>0.05913888992003191</v>
       </c>
       <c r="T15">
-        <v>0.06092235325033522</v>
+        <v>0.06325600259268752</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H16">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I16">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J16">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>5499.076079918991</v>
+        <v>5823.538228158937</v>
       </c>
       <c r="R16">
-        <v>5499.076079918991</v>
+        <v>34941.22936895362</v>
       </c>
       <c r="S16">
-        <v>0.01841773817310203</v>
+        <v>0.01754251002918112</v>
       </c>
       <c r="T16">
-        <v>0.01841773817310203</v>
+        <v>0.01250918599011729</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>180.811697386847</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H17">
-        <v>180.811697386847</v>
+        <v>569.411759</v>
       </c>
       <c r="I17">
-        <v>0.2850018226818199</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J17">
-        <v>0.2850018226818199</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>607.3649811294982</v>
+        <v>749.0943213824684</v>
       </c>
       <c r="R17">
-        <v>607.3649811294982</v>
+        <v>6741.848892442215</v>
       </c>
       <c r="S17">
-        <v>0.002034212481402683</v>
+        <v>0.002256531017880686</v>
       </c>
       <c r="T17">
-        <v>0.002034212481402683</v>
+        <v>0.002413625485878303</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>180.811697386847</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H18">
-        <v>180.811697386847</v>
+        <v>569.411759</v>
       </c>
       <c r="I18">
-        <v>0.2850018226818199</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J18">
-        <v>0.2850018226818199</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>31647.79281076853</v>
+        <v>35266.0891592902</v>
       </c>
       <c r="R18">
-        <v>31647.79281076853</v>
+        <v>317394.8024336118</v>
       </c>
       <c r="S18">
-        <v>0.1059961261263187</v>
+        <v>0.1062336501502501</v>
       </c>
       <c r="T18">
-        <v>0.1059961261263187</v>
+        <v>0.1136293910558958</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>180.811697386847</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H19">
-        <v>180.811697386847</v>
+        <v>569.411759</v>
       </c>
       <c r="I19">
-        <v>0.2850018226818199</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J19">
-        <v>0.2850018226818199</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>20896.46399018231</v>
+        <v>22271.48266989691</v>
       </c>
       <c r="R19">
-        <v>20896.46399018231</v>
+        <v>200443.3440290722</v>
       </c>
       <c r="S19">
-        <v>0.06998732094655841</v>
+        <v>0.06708940386314177</v>
       </c>
       <c r="T19">
-        <v>0.06998732094655841</v>
+        <v>0.07176001291954019</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>180.811697386847</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H20">
-        <v>180.811697386847</v>
+        <v>569.411759</v>
       </c>
       <c r="I20">
-        <v>0.2850018226818199</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J20">
-        <v>0.2850018226818199</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>24527.70426598988</v>
+        <v>26527.78394175576</v>
       </c>
       <c r="R20">
-        <v>24527.70426598988</v>
+        <v>238750.0554758018</v>
       </c>
       <c r="S20">
-        <v>0.08214922445025238</v>
+        <v>0.07991085446988146</v>
       </c>
       <c r="T20">
-        <v>0.08214922445025238</v>
+        <v>0.08547406324951135</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>180.811697386847</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H21">
-        <v>180.811697386847</v>
+        <v>569.411759</v>
       </c>
       <c r="I21">
-        <v>0.2850018226818199</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J21">
-        <v>0.2850018226818199</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>7415.091687315831</v>
+        <v>7868.999848990554</v>
       </c>
       <c r="R21">
-        <v>7415.091687315831</v>
+        <v>47213.99909394333</v>
       </c>
       <c r="S21">
-        <v>0.02483493867728779</v>
+        <v>0.02370414743790259</v>
       </c>
       <c r="T21">
-        <v>0.02483493867728779</v>
+        <v>0.01690291688844069</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>69.96608420987231</v>
+        <v>77.2091405</v>
       </c>
       <c r="H22">
-        <v>69.96608420987231</v>
+        <v>154.418281</v>
       </c>
       <c r="I22">
-        <v>0.1102830282216789</v>
+        <v>0.1135718067765637</v>
       </c>
       <c r="J22">
-        <v>0.1102830282216789</v>
+        <v>0.07869366509321105</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>235.0232315164652</v>
+        <v>304.7193588464573</v>
       </c>
       <c r="R22">
-        <v>235.0232315164652</v>
+        <v>1828.316153078744</v>
       </c>
       <c r="S22">
-        <v>0.0007871497465680383</v>
+        <v>0.0009179200340442457</v>
       </c>
       <c r="T22">
-        <v>0.0007871497465680383</v>
+        <v>0.0006545490018711</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>69.96608420987231</v>
+        <v>77.2091405</v>
       </c>
       <c r="H23">
-        <v>69.96608420987231</v>
+        <v>154.418281</v>
       </c>
       <c r="I23">
-        <v>0.1102830282216789</v>
+        <v>0.1135718067765637</v>
       </c>
       <c r="J23">
-        <v>0.1102830282216789</v>
+        <v>0.07869366509321105</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>12246.28809339355</v>
+        <v>14345.67019251791</v>
       </c>
       <c r="R23">
-        <v>12246.28809339355</v>
+        <v>86074.02115510748</v>
       </c>
       <c r="S23">
-        <v>0.04101578600087706</v>
+        <v>0.04321411715144351</v>
       </c>
       <c r="T23">
-        <v>0.04101578600087706</v>
+        <v>0.03081505599523138</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>69.96608420987231</v>
+        <v>77.2091405</v>
       </c>
       <c r="H24">
-        <v>69.96608420987231</v>
+        <v>154.418281</v>
       </c>
       <c r="I24">
-        <v>0.1102830282216789</v>
+        <v>0.1135718067765637</v>
       </c>
       <c r="J24">
-        <v>0.1102830282216789</v>
+        <v>0.07869366509321105</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>8086.002069310895</v>
+        <v>9059.676099541453</v>
       </c>
       <c r="R24">
-        <v>8086.002069310895</v>
+        <v>54358.05659724872</v>
       </c>
       <c r="S24">
-        <v>0.02708198010272357</v>
+        <v>0.02729087585771419</v>
       </c>
       <c r="T24">
-        <v>0.02708198010272357</v>
+        <v>0.01946053565706779</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>69.96608420987231</v>
+        <v>77.2091405</v>
       </c>
       <c r="H25">
-        <v>69.96608420987231</v>
+        <v>154.418281</v>
       </c>
       <c r="I25">
-        <v>0.1102830282216789</v>
+        <v>0.1135718067765637</v>
       </c>
       <c r="J25">
-        <v>0.1102830282216789</v>
+        <v>0.07869366509321105</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>9491.130534975715</v>
+        <v>10791.07007436774</v>
       </c>
       <c r="R25">
-        <v>9491.130534975715</v>
+        <v>64746.42044620642</v>
       </c>
       <c r="S25">
-        <v>0.0317880957854454</v>
+        <v>0.03250643296026557</v>
       </c>
       <c r="T25">
-        <v>0.0317880957854454</v>
+        <v>0.02317963707011329</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>69.96608420987231</v>
+        <v>77.2091405</v>
       </c>
       <c r="H26">
-        <v>69.96608420987231</v>
+        <v>154.418281</v>
       </c>
       <c r="I26">
-        <v>0.1102830282216789</v>
+        <v>0.1135718067765637</v>
       </c>
       <c r="J26">
-        <v>0.1102830282216789</v>
+        <v>0.07869366509321105</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>2869.310652555179</v>
+        <v>3200.980864895647</v>
       </c>
       <c r="R26">
-        <v>2869.310652555179</v>
+        <v>12803.92345958259</v>
       </c>
       <c r="S26">
-        <v>0.009610016586064819</v>
+        <v>0.009642460773096205</v>
       </c>
       <c r="T26">
-        <v>0.009610016586064819</v>
+        <v>0.004583887368927484</v>
       </c>
     </row>
   </sheetData>
